--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3669.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3669.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3669</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Samiullah Shinwari</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2964</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3007</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3008</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>16/02/2010</t>
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3087</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3089</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/07/2010</t>
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3135</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3142</t>
+          <t>3142</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -900,7 +963,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>07/07/2010</t>
@@ -908,7 +970,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3147</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3149</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1062,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>10/07/2010</t>
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3153</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1109,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1108,7 +1168,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3166</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1160,7 +1220,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3183</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1260,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>09/10/2010</t>
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3185</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3187</t>
+          <t>3187</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1312,7 +1371,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3309</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1364,7 +1423,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3310</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1416,7 +1475,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1468,7 +1527,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3406</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1508,7 +1567,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>31/03/2012</t>
@@ -1516,7 +1574,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3407</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1568,7 +1626,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1620,7 +1678,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1672,7 +1730,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1724,7 +1782,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1764,7 +1822,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -1772,7 +1829,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1812,7 +1869,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -1820,7 +1876,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3561</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1872,7 +1928,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1924,7 +1980,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1976,7 +2032,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2028,7 +2084,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2080,7 +2136,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3632</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2132,7 +2188,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3633</t>
+          <t>3633</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2184,7 +2240,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3649</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2236,7 +2292,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3650</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2288,7 +2344,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3651</t>
+          <t>3651</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2340,7 +2396,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3652</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2392,7 +2448,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3705</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2444,7 +2500,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3707</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2496,7 +2552,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3709</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2548,7 +2604,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3711</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2588,7 +2644,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -2596,7 +2651,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2648,7 +2703,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2700,7 +2755,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2752,7 +2807,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2804,7 +2859,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2856,7 +2911,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2908,7 +2963,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2960,7 +3015,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3012,7 +3067,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3064,7 +3119,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3843</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3116,7 +3171,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3846</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3168,7 +3223,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3847</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3220,7 +3275,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3849</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3272,7 +3327,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3850</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3324,7 +3379,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3864</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3376,7 +3431,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3867</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3428,7 +3483,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3869</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3480,7 +3535,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3532,7 +3587,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3584,7 +3639,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3636,7 +3691,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3688,7 +3743,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3740,7 +3795,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3996</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3792,7 +3847,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3844,7 +3899,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3896,7 +3951,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3948,7 +4003,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4000,7 +4055,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4052,7 +4107,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4104,7 +4159,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4156,7 +4211,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4208,7 +4263,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4260,7 +4315,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4312,7 +4367,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4364,7 +4419,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4416,7 +4471,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4468,7 +4523,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4520,7 +4575,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4572,7 +4627,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4624,7 +4679,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4676,7 +4731,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4728,7 +4783,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4780,7 +4835,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4819,7 +4874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4841,7 +4896,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4878,7 +4933,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2964</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4915,7 +4970,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3007</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4952,7 +5007,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3008</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4989,7 +5044,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3087</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5026,7 +5081,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3089</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5063,7 +5118,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3135</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5100,7 +5155,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5137,7 +5192,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3142</t>
+          <t>3142</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5174,7 +5229,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3147</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5211,7 +5266,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3149</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5248,7 +5303,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3153</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5285,7 +5340,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5322,7 +5377,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3166</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5359,7 +5414,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3183</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5396,7 +5451,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3185</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5433,7 +5488,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3187</t>
+          <t>3187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5470,7 +5525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3309</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5507,7 +5562,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3310</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5544,7 +5599,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5581,7 +5636,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3406</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5618,7 +5673,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3407</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5655,7 +5710,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5692,7 +5747,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5729,7 +5784,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5766,7 +5821,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5803,7 +5858,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3561</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5840,7 +5895,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5877,7 +5932,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5914,7 +5969,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5951,7 +6006,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5988,7 +6043,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3632</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6025,7 +6080,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3649</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6062,7 +6117,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3650</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6099,7 +6154,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3651</t>
+          <t>3651</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6136,7 +6191,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3652</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6173,7 +6228,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3707</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6210,7 +6265,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3709</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6247,7 +6302,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3711</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6284,7 +6339,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6321,7 +6376,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6358,7 +6413,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6395,7 +6450,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6432,7 +6487,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6469,7 +6524,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6506,7 +6561,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6543,7 +6598,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6580,7 +6635,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3843</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6617,7 +6672,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3846</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6654,7 +6709,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3847</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6691,7 +6746,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3849</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6728,7 +6783,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3850</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6765,7 +6820,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3864</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6802,7 +6857,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3867</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6839,7 +6894,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3869</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6876,7 +6931,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6913,7 +6968,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6950,7 +7005,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6987,7 +7042,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7024,7 +7079,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7061,7 +7116,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7098,7 +7153,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7135,7 +7190,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7172,7 +7227,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7209,7 +7264,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7246,7 +7301,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7272,6 +7327,597 @@
       <c r="G66" t="inlineStr">
         <is>
           <t>0/32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7.11%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10.27%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.14%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.84%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.38%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.48%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.07%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.68%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.71%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.06%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.35%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.50%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.37%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3669.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3669.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7477,449 +7478,708 @@
           <t>4008</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.84%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.38%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.48%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.07%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.68%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.71%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.06%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.35%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.50%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.37%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4010</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>26.84%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4040</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.38%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4043</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.48%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4136</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.07%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4147</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4160</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.12%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4163</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12.68%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4164</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.71%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4198</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.06%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4202</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9.35%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4262</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4267</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>24.50%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.37%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.08%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3669.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3669.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -714,6 +712,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>16/02/2010</t>
@@ -813,6 +812,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/07/2010</t>
@@ -964,6 +964,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>07/07/2010</t>
@@ -1063,6 +1064,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>10/07/2010</t>
@@ -1110,6 +1112,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1261,6 +1264,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>09/10/2010</t>
@@ -1568,6 +1572,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>31/03/2012</t>
@@ -1823,6 +1828,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -1870,6 +1876,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -2645,6 +2652,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -7334,854 +7342,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3998</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>7.11%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4006</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10.27%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4007</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.14%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4008</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4010</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>26.84%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4040</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.38%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4043</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.48%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4136</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.07%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4147</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4154</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4160</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.12%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4163</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12.68%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4164</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.71%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4198</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.06%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4202</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9.35%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4262</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4267</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>24.50%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.37%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.08%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3785</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3843</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3846</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3847</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3849</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3850</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3864</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3867</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3869</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3916</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3941</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4006</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4007</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4008</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4010</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4040</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4198</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4202</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4262</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3669.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3669.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -712,7 +714,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>16/02/2010</t>
@@ -812,7 +813,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/07/2010</t>
@@ -964,7 +964,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>07/07/2010</t>
@@ -1064,7 +1063,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>10/07/2010</t>
@@ -1112,7 +1110,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1264,7 +1261,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>09/10/2010</t>
@@ -1572,7 +1568,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>31/03/2012</t>
@@ -1828,7 +1823,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -1876,7 +1870,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -2652,7 +2645,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -7342,4 +7334,2816 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2964</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15.00%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3087</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3089</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7.07%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.04%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3147</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.27%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3185</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3187</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9.57%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5.33%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3372</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>16.41%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3406</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.19%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>18.27%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>11.49%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>31.89%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3626</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4.84%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>31.45%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3632</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.15%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3649</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.95%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3651</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3652</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>15.44%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3705</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>10.08%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3709</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15.87%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.93%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>16.38%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>45.50%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>11.97%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6.31%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>13.93%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>7.38%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1.57%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3.45%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>4</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>9.60%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4.80%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.02%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>11.71%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>7.11%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>10.27%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>4.14%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>26.84%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>10.38%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1.48%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2.07%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>12.68%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>9.71%</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>7.06%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>9.35%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.50%</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>8</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>8.37%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2964</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3087</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3089</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3138</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3147</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3185</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3187</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3372</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3406</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3626</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3632</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3649</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3651</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3652</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3709</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>